--- a/Datasets/Gutbier/Data/Gutbier_FS.xlsx
+++ b/Datasets/Gutbier/Data/Gutbier_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Gutbier/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2115" documentId="8_{5C898CBB-92C6-4EDD-B95E-9FF6A155CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CEF9EB-E3B8-4DA6-A395-754E5F9F503C}"/>
+  <xr:revisionPtr revIDLastSave="2167" documentId="8_{5C898CBB-92C6-4EDD-B95E-9FF6A155CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3BB7C8-6D14-4B39-A823-B9B0E0A32977}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3D659073-2110-4A93-BDE7-5EC63C30497C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="698">
   <si>
     <t>ID</t>
   </si>
@@ -660,9 +660,6 @@
     <t>Ludinghusen.</t>
   </si>
   <si>
-    <t>Orber Mundart von Herrlein.</t>
-  </si>
-  <si>
     <t>Die Hell.</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>De Sunndag und de Sunn-Avend.</t>
   </si>
   <si>
-    <t>Westlüstig</t>
-  </si>
-  <si>
     <t>De Angler</t>
   </si>
   <si>
@@ -771,9 +765,6 @@
     <t>Gegend von Dessau</t>
   </si>
   <si>
-    <t>Mundart im Meissnischen</t>
-  </si>
-  <si>
     <t>Der Bauer.</t>
   </si>
   <si>
@@ -807,15 +798,9 @@
     <t>Die Wetterbriefe.</t>
   </si>
   <si>
-    <t>Vlämisch-Niederländische Mundart in Flandern (Gent, Antwerpen.)</t>
-  </si>
-  <si>
     <t>Elsenkoning.</t>
   </si>
   <si>
-    <t>Flamändische Mundart</t>
-  </si>
-  <si>
     <t>Het Peerd en de Herder.</t>
   </si>
   <si>
@@ -2062,6 +2047,90 @@
   </si>
   <si>
     <t>koords von Meissen, im Buch steht (Dresden (Meissner Mundart))</t>
+  </si>
+  <si>
+    <t>50.2276539</t>
+  </si>
+  <si>
+    <t>9.3480860</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>koords der Stadt Bad orb an der Orb. Überhaupt nichts zu "Herrlein" gefunden, nur ein ort Herlein im osten der Slowakei.</t>
+  </si>
+  <si>
+    <t>50.3613256</t>
+  </si>
+  <si>
+    <t>10.945336</t>
+  </si>
+  <si>
+    <t>heute Tremersdorf</t>
+  </si>
+  <si>
+    <t>Ostfriesland</t>
+  </si>
+  <si>
+    <t>53.4913550</t>
+  </si>
+  <si>
+    <t>7.4792361</t>
+  </si>
+  <si>
+    <t>51.0477520</t>
+  </si>
+  <si>
+    <t>14.0762355</t>
+  </si>
+  <si>
+    <t>fürstentum Bernbueg-Anhalt</t>
+  </si>
+  <si>
+    <t>51.7921885</t>
+  </si>
+  <si>
+    <t>11.7368915</t>
+  </si>
+  <si>
+    <t>51.1189364</t>
+  </si>
+  <si>
+    <t>13.3972840</t>
+  </si>
+  <si>
+    <t>Meißnisches Gebiet</t>
+  </si>
+  <si>
+    <t>koord etwa in der mitte des Verbreitungsgebiets der Dialektgruppe Meißnisch</t>
+  </si>
+  <si>
+    <t>50.8432261</t>
+  </si>
+  <si>
+    <t>16.4869390</t>
+  </si>
+  <si>
+    <t>50.9037682</t>
+  </si>
+  <si>
+    <t>15.7197024</t>
+  </si>
+  <si>
+    <t>heute Świdnica und Jelenia Góra</t>
+  </si>
+  <si>
+    <t>Niederländisches Flandern (Gent, Antwerpen)</t>
+  </si>
+  <si>
+    <t>51.1055249</t>
+  </si>
+  <si>
+    <t>4.09786779</t>
+  </si>
+  <si>
+    <t>koord zwischen Gent und Antwerpen</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2241,15 +2310,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2576,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC60441-D8EC-4905-A56A-07EFDB1E91F5}">
   <dimension ref="A1:AC245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C203" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N200" sqref="N200"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2695,115 +2755,115 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="29" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="D2" s="29">
+    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2">
         <v>183</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2">
         <v>183</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>624</v>
-      </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="34" t="s">
-        <v>623</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB2" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3">
         <v>183</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3">
         <v>189</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>631</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>632</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="36" t="s">
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="W3" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>634</v>
+      <c r="O3" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="X3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>625</v>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>620</v>
       </c>
       <c r="D4">
         <v>183</v>
@@ -2815,19 +2875,19 @@
         <v>30</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>269</v>
+        <v>295</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
@@ -2839,21 +2899,21 @@
         <v>32</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X4" t="s">
+        <v>264</v>
       </c>
       <c r="AB4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>625</v>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>620</v>
       </c>
       <c r="D5">
         <v>183</v>
@@ -2867,40 +2927,40 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="33" t="s">
-        <v>269</v>
+      <c r="L5" t="s">
+        <v>264</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="V5" t="s">
         <v>122</v>
       </c>
       <c r="W5" t="s">
-        <v>629</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X5" t="s">
+        <v>264</v>
       </c>
       <c r="AB5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC5" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>625</v>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>620</v>
       </c>
       <c r="D6">
         <v>183</v>
@@ -2914,40 +2974,40 @@
       <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="33" t="s">
-        <v>269</v>
+      <c r="L6" t="s">
+        <v>264</v>
       </c>
       <c r="M6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="V6" t="s">
         <v>122</v>
       </c>
       <c r="W6" t="s">
-        <v>629</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X6" t="s">
+        <v>264</v>
       </c>
       <c r="AB6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>625</v>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>620</v>
       </c>
       <c r="D7">
         <v>183</v>
@@ -2961,40 +3021,40 @@
       <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="33" t="s">
-        <v>269</v>
+      <c r="L7" t="s">
+        <v>264</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="V7" t="s">
         <v>122</v>
       </c>
       <c r="W7" t="s">
-        <v>629</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X7" t="s">
+        <v>264</v>
       </c>
       <c r="AB7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>625</v>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>620</v>
       </c>
       <c r="D8">
         <v>183</v>
@@ -3008,40 +3068,40 @@
       <c r="K8" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="33" t="s">
-        <v>269</v>
+      <c r="L8" t="s">
+        <v>264</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="V8" t="s">
         <v>122</v>
       </c>
       <c r="W8" t="s">
-        <v>629</v>
-      </c>
-      <c r="X8" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X8" t="s">
+        <v>264</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>625</v>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>620</v>
       </c>
       <c r="D9">
         <v>184</v>
@@ -3055,40 +3115,40 @@
       <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>269</v>
+      <c r="L9" t="s">
+        <v>264</v>
       </c>
       <c r="M9" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>328</v>
       </c>
       <c r="V9" t="s">
         <v>122</v>
       </c>
       <c r="W9" t="s">
-        <v>629</v>
-      </c>
-      <c r="X9" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X9" t="s">
+        <v>264</v>
       </c>
       <c r="AB9" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>625</v>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>620</v>
       </c>
       <c r="D10">
         <v>184</v>
@@ -3102,40 +3162,40 @@
       <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="33" t="s">
-        <v>269</v>
+      <c r="L10" t="s">
+        <v>264</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="V10" t="s">
         <v>122</v>
       </c>
       <c r="W10" t="s">
-        <v>629</v>
-      </c>
-      <c r="X10" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X10" t="s">
+        <v>264</v>
       </c>
       <c r="AB10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>625</v>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>620</v>
       </c>
       <c r="D11">
         <v>184</v>
@@ -3149,37 +3209,37 @@
       <c r="K11" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="33" t="s">
-        <v>269</v>
+      <c r="L11" t="s">
+        <v>264</v>
       </c>
       <c r="M11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="V11" t="s">
         <v>122</v>
       </c>
       <c r="W11" t="s">
-        <v>629</v>
-      </c>
-      <c r="X11" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X11" t="s">
+        <v>264</v>
       </c>
       <c r="AB11" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>625</v>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>620</v>
       </c>
       <c r="D12">
         <v>184</v>
@@ -3193,40 +3253,40 @@
       <c r="K12" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="33" t="s">
-        <v>269</v>
+      <c r="L12" t="s">
+        <v>264</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="V12" t="s">
         <v>122</v>
       </c>
       <c r="W12" t="s">
-        <v>629</v>
-      </c>
-      <c r="X12" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X12" t="s">
+        <v>264</v>
       </c>
       <c r="AB12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC12" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>625</v>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>620</v>
       </c>
       <c r="D13">
         <v>184</v>
@@ -3240,37 +3300,37 @@
       <c r="K13" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="33" t="s">
-        <v>269</v>
+      <c r="L13" t="s">
+        <v>264</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="V13" t="s">
         <v>122</v>
       </c>
       <c r="W13" t="s">
-        <v>629</v>
-      </c>
-      <c r="X13" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X13" t="s">
+        <v>264</v>
       </c>
       <c r="AB13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>625</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>620</v>
       </c>
       <c r="D14">
         <v>184</v>
@@ -3284,37 +3344,37 @@
       <c r="K14" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="33" t="s">
-        <v>269</v>
+      <c r="L14" t="s">
+        <v>264</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="V14" t="s">
         <v>122</v>
       </c>
       <c r="W14" t="s">
-        <v>629</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X14" t="s">
+        <v>264</v>
       </c>
       <c r="AB14" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>625</v>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>620</v>
       </c>
       <c r="D15">
         <v>184</v>
@@ -3326,39 +3386,39 @@
         <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>496</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>269</v>
+        <v>491</v>
+      </c>
+      <c r="L15" t="s">
+        <v>264</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="V15" t="s">
         <v>122</v>
       </c>
       <c r="W15" t="s">
-        <v>629</v>
-      </c>
-      <c r="X15" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X15" t="s">
+        <v>264</v>
       </c>
       <c r="AB15" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>625</v>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>620</v>
       </c>
       <c r="D16">
         <v>185</v>
@@ -3372,40 +3432,40 @@
       <c r="K16" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="33" t="s">
-        <v>269</v>
+      <c r="L16" t="s">
+        <v>264</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="V16" t="s">
         <v>122</v>
       </c>
       <c r="W16" t="s">
-        <v>629</v>
-      </c>
-      <c r="X16" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X16" t="s">
+        <v>264</v>
       </c>
       <c r="AB16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>625</v>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>620</v>
       </c>
       <c r="D17">
         <v>185</v>
@@ -3419,37 +3479,37 @@
       <c r="K17" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="33" t="s">
-        <v>269</v>
+      <c r="L17" t="s">
+        <v>264</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V17" t="s">
         <v>122</v>
       </c>
       <c r="W17" t="s">
-        <v>629</v>
-      </c>
-      <c r="X17" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X17" t="s">
+        <v>264</v>
       </c>
       <c r="AB17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>625</v>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>620</v>
       </c>
       <c r="D18">
         <v>185</v>
@@ -3463,37 +3523,37 @@
       <c r="K18" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="33" t="s">
-        <v>269</v>
+      <c r="L18" t="s">
+        <v>264</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V18" t="s">
         <v>122</v>
       </c>
       <c r="W18" t="s">
-        <v>629</v>
-      </c>
-      <c r="X18" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X18" t="s">
+        <v>264</v>
       </c>
       <c r="AB18" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>625</v>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>620</v>
       </c>
       <c r="D19">
         <v>185</v>
@@ -3505,39 +3565,39 @@
         <v>30</v>
       </c>
       <c r="K19" t="s">
-        <v>347</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>269</v>
+        <v>342</v>
+      </c>
+      <c r="L19" t="s">
+        <v>264</v>
       </c>
       <c r="M19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="V19" t="s">
         <v>122</v>
       </c>
       <c r="W19" t="s">
-        <v>629</v>
-      </c>
-      <c r="X19" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X19" t="s">
+        <v>264</v>
       </c>
       <c r="AB19" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>625</v>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>620</v>
       </c>
       <c r="D20">
         <v>185</v>
@@ -3549,19 +3609,19 @@
         <v>30</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>314</v>
+        <v>296</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>309</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O20" s="28" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
@@ -3573,21 +3633,21 @@
         <v>50</v>
       </c>
       <c r="W20" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X20" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X20" t="s">
+        <v>264</v>
       </c>
       <c r="AB20" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>625</v>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>620</v>
       </c>
       <c r="D21">
         <v>185</v>
@@ -3601,37 +3661,37 @@
       <c r="K21" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="33" t="s">
-        <v>269</v>
+      <c r="L21" t="s">
+        <v>264</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V21" t="s">
         <v>122</v>
       </c>
       <c r="W21" t="s">
-        <v>629</v>
-      </c>
-      <c r="X21" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X21" t="s">
+        <v>264</v>
       </c>
       <c r="AB21" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>625</v>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>620</v>
       </c>
       <c r="D22">
         <v>185</v>
@@ -3645,37 +3705,37 @@
       <c r="K22" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="33" t="s">
-        <v>269</v>
+      <c r="L22" t="s">
+        <v>264</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V22" t="s">
         <v>122</v>
       </c>
       <c r="W22" t="s">
-        <v>629</v>
-      </c>
-      <c r="X22" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X22" t="s">
+        <v>264</v>
       </c>
       <c r="AB22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>625</v>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>620</v>
       </c>
       <c r="D23">
         <v>185</v>
@@ -3689,37 +3749,37 @@
       <c r="K23" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="33" t="s">
-        <v>269</v>
+      <c r="L23" t="s">
+        <v>264</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="V23" t="s">
         <v>122</v>
       </c>
       <c r="W23" t="s">
-        <v>629</v>
-      </c>
-      <c r="X23" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X23" t="s">
+        <v>264</v>
       </c>
       <c r="AB23" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>625</v>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>620</v>
       </c>
       <c r="D24">
         <v>186</v>
@@ -3731,39 +3791,39 @@
         <v>30</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>269</v>
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>264</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="V24" t="s">
         <v>122</v>
       </c>
       <c r="W24" t="s">
-        <v>629</v>
-      </c>
-      <c r="X24" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X24" t="s">
+        <v>264</v>
       </c>
       <c r="AB24" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>625</v>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>620</v>
       </c>
       <c r="D25">
         <v>186</v>
@@ -3775,42 +3835,42 @@
         <v>30</v>
       </c>
       <c r="K25" t="s">
-        <v>356</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>269</v>
+        <v>351</v>
+      </c>
+      <c r="L25" t="s">
+        <v>264</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="V25" t="s">
         <v>122</v>
       </c>
       <c r="W25" t="s">
-        <v>629</v>
-      </c>
-      <c r="X25" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X25" t="s">
+        <v>264</v>
       </c>
       <c r="AB25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC25" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>625</v>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>620</v>
       </c>
       <c r="D26">
         <v>186</v>
@@ -3824,37 +3884,37 @@
       <c r="K26" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="33" t="s">
-        <v>269</v>
+      <c r="L26" t="s">
+        <v>264</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="V26" t="s">
         <v>122</v>
       </c>
       <c r="W26" t="s">
-        <v>629</v>
-      </c>
-      <c r="X26" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X26" t="s">
+        <v>264</v>
       </c>
       <c r="AB26" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>625</v>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>620</v>
       </c>
       <c r="D27">
         <v>186</v>
@@ -3866,19 +3926,19 @@
         <v>30</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>358</v>
+        <v>297</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>353</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
@@ -3890,21 +3950,21 @@
         <v>49</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X27" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
       </c>
       <c r="AB27" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>625</v>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>620</v>
       </c>
       <c r="D28">
         <v>186</v>
@@ -3916,19 +3976,19 @@
         <v>30</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>358</v>
+        <v>297</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>353</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -3940,21 +4000,21 @@
         <v>51</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="X28" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X28" t="s">
+        <v>264</v>
       </c>
       <c r="AB28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>625</v>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>620</v>
       </c>
       <c r="D29">
         <v>186</v>
@@ -3968,37 +4028,37 @@
       <c r="K29" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="33" t="s">
-        <v>269</v>
+      <c r="L29" t="s">
+        <v>264</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="V29" t="s">
         <v>122</v>
       </c>
       <c r="W29" t="s">
-        <v>630</v>
-      </c>
-      <c r="X29" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
       </c>
       <c r="AB29" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>625</v>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>620</v>
       </c>
       <c r="D30">
         <v>186</v>
@@ -4012,37 +4072,37 @@
       <c r="K30" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="33" t="s">
-        <v>269</v>
+      <c r="L30" t="s">
+        <v>264</v>
       </c>
       <c r="M30" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="V30" t="s">
         <v>122</v>
       </c>
       <c r="W30" t="s">
-        <v>630</v>
-      </c>
-      <c r="X30" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X30" t="s">
+        <v>264</v>
       </c>
       <c r="AB30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>625</v>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>620</v>
       </c>
       <c r="D31">
         <v>186</v>
@@ -4056,37 +4116,37 @@
       <c r="K31" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="33" t="s">
-        <v>269</v>
+      <c r="L31" t="s">
+        <v>264</v>
       </c>
       <c r="M31" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="V31" t="s">
         <v>122</v>
       </c>
       <c r="W31" t="s">
-        <v>630</v>
-      </c>
-      <c r="X31" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X31" t="s">
+        <v>264</v>
       </c>
       <c r="AB31" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>625</v>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>620</v>
       </c>
       <c r="D32">
         <v>187</v>
@@ -4100,37 +4160,37 @@
       <c r="K32" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="33" t="s">
-        <v>269</v>
+      <c r="L32" t="s">
+        <v>264</v>
       </c>
       <c r="M32" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="V32" t="s">
         <v>122</v>
       </c>
       <c r="W32" t="s">
-        <v>630</v>
-      </c>
-      <c r="X32" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
       </c>
       <c r="AB32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>625</v>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>620</v>
       </c>
       <c r="D33">
         <v>187</v>
@@ -4144,37 +4204,37 @@
       <c r="K33" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="33" t="s">
-        <v>269</v>
+      <c r="L33" t="s">
+        <v>264</v>
       </c>
       <c r="M33" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="V33" t="s">
         <v>122</v>
       </c>
       <c r="W33" t="s">
-        <v>630</v>
-      </c>
-      <c r="X33" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X33" t="s">
+        <v>264</v>
       </c>
       <c r="AB33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>625</v>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>620</v>
       </c>
       <c r="D34">
         <v>187</v>
@@ -4188,37 +4248,37 @@
       <c r="K34" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="33" t="s">
-        <v>269</v>
+      <c r="L34" t="s">
+        <v>264</v>
       </c>
       <c r="M34" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="V34" t="s">
         <v>122</v>
       </c>
       <c r="W34" t="s">
-        <v>630</v>
-      </c>
-      <c r="X34" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X34" t="s">
+        <v>264</v>
       </c>
       <c r="AB34" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>625</v>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>620</v>
       </c>
       <c r="D35">
         <v>187</v>
@@ -4230,39 +4290,39 @@
         <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>365</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>269</v>
+        <v>360</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="V35" t="s">
         <v>122</v>
       </c>
       <c r="W35" t="s">
-        <v>630</v>
-      </c>
-      <c r="X35" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X35" t="s">
+        <v>264</v>
       </c>
       <c r="AB35" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>625</v>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>620</v>
       </c>
       <c r="D36">
         <v>187</v>
@@ -4276,37 +4336,37 @@
       <c r="K36" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="33" t="s">
-        <v>269</v>
+      <c r="L36" t="s">
+        <v>264</v>
       </c>
       <c r="M36" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="V36" t="s">
         <v>122</v>
       </c>
       <c r="W36" t="s">
-        <v>630</v>
-      </c>
-      <c r="X36" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X36" t="s">
+        <v>264</v>
       </c>
       <c r="AB36" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>625</v>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>620</v>
       </c>
       <c r="D37">
         <v>187</v>
@@ -4318,19 +4378,19 @@
         <v>30</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="L37" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M37" s="40" t="s">
-        <v>314</v>
+        <v>298</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>309</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
@@ -4342,21 +4402,21 @@
         <v>59</v>
       </c>
       <c r="W37" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="X37" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X37" t="s">
+        <v>264</v>
       </c>
       <c r="AB37" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>625</v>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>620</v>
       </c>
       <c r="D38">
         <v>187</v>
@@ -4370,37 +4430,37 @@
       <c r="K38" t="s">
         <v>60</v>
       </c>
-      <c r="L38" s="33" t="s">
-        <v>269</v>
+      <c r="L38" t="s">
+        <v>264</v>
       </c>
       <c r="M38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="V38" t="s">
         <v>122</v>
       </c>
       <c r="W38" t="s">
-        <v>630</v>
-      </c>
-      <c r="X38" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X38" t="s">
+        <v>264</v>
       </c>
       <c r="AB38" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>625</v>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>620</v>
       </c>
       <c r="D39">
         <v>187</v>
@@ -4414,37 +4474,37 @@
       <c r="K39" t="s">
         <v>61</v>
       </c>
-      <c r="L39" s="33" t="s">
-        <v>269</v>
+      <c r="L39" t="s">
+        <v>264</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V39" t="s">
         <v>122</v>
       </c>
       <c r="W39" t="s">
-        <v>630</v>
-      </c>
-      <c r="X39" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X39" t="s">
+        <v>264</v>
       </c>
       <c r="AB39" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>625</v>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>620</v>
       </c>
       <c r="D40">
         <v>188</v>
@@ -4456,39 +4516,39 @@
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>520</v>
-      </c>
-      <c r="L40" s="33" t="s">
-        <v>269</v>
+        <v>515</v>
+      </c>
+      <c r="L40" t="s">
+        <v>264</v>
       </c>
       <c r="M40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="V40" t="s">
         <v>122</v>
       </c>
       <c r="W40" t="s">
-        <v>630</v>
-      </c>
-      <c r="X40" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X40" t="s">
+        <v>264</v>
       </c>
       <c r="AB40" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>625</v>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>620</v>
       </c>
       <c r="D41">
         <v>188</v>
@@ -4500,19 +4560,19 @@
         <v>30</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M41" s="40" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>309</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
@@ -4524,24 +4584,24 @@
         <v>62</v>
       </c>
       <c r="W41" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="X41" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X41" t="s">
+        <v>264</v>
       </c>
       <c r="AB41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC41" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>625</v>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>620</v>
       </c>
       <c r="D42">
         <v>188</v>
@@ -4555,37 +4615,37 @@
       <c r="K42" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="33" t="s">
-        <v>269</v>
+      <c r="L42" t="s">
+        <v>264</v>
       </c>
       <c r="M42" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="V42" t="s">
         <v>122</v>
       </c>
       <c r="W42" t="s">
-        <v>630</v>
-      </c>
-      <c r="X42" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X42" t="s">
+        <v>264</v>
       </c>
       <c r="AB42" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>625</v>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>620</v>
       </c>
       <c r="D43">
         <v>188</v>
@@ -4599,40 +4659,40 @@
       <c r="K43" t="s">
         <v>64</v>
       </c>
-      <c r="L43" s="33" t="s">
-        <v>269</v>
+      <c r="L43" t="s">
+        <v>264</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="V43" t="s">
         <v>122</v>
       </c>
       <c r="W43" t="s">
-        <v>630</v>
-      </c>
-      <c r="X43" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X43" t="s">
+        <v>264</v>
       </c>
       <c r="AB43" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC43" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>625</v>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>620</v>
       </c>
       <c r="D44">
         <v>188</v>
@@ -4646,37 +4706,37 @@
       <c r="K44" t="s">
         <v>173</v>
       </c>
-      <c r="L44" s="33" t="s">
-        <v>269</v>
+      <c r="L44" t="s">
+        <v>264</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="V44" t="s">
         <v>122</v>
       </c>
       <c r="W44" t="s">
-        <v>630</v>
-      </c>
-      <c r="X44" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X44" t="s">
+        <v>264</v>
       </c>
       <c r="AB44" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>625</v>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>620</v>
       </c>
       <c r="D45">
         <v>188</v>
@@ -4688,39 +4748,39 @@
         <v>30</v>
       </c>
       <c r="K45" t="s">
-        <v>376</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>269</v>
+        <v>371</v>
+      </c>
+      <c r="L45" t="s">
+        <v>264</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="V45" t="s">
         <v>122</v>
       </c>
       <c r="W45" t="s">
-        <v>630</v>
-      </c>
-      <c r="X45" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X45" t="s">
+        <v>264</v>
       </c>
       <c r="AB45" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>625</v>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>620</v>
       </c>
       <c r="D46">
         <v>189</v>
@@ -4734,37 +4794,37 @@
       <c r="K46" t="s">
         <v>134</v>
       </c>
-      <c r="L46" s="33" t="s">
-        <v>269</v>
+      <c r="L46" t="s">
+        <v>264</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="V46" t="s">
         <v>122</v>
       </c>
       <c r="W46" t="s">
-        <v>630</v>
-      </c>
-      <c r="X46" s="29" t="s">
-        <v>269</v>
+        <v>625</v>
+      </c>
+      <c r="X46" t="s">
+        <v>264</v>
       </c>
       <c r="AB46" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>625</v>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>620</v>
       </c>
       <c r="D47">
         <v>189</v>
@@ -4772,20 +4832,23 @@
       <c r="E47">
         <v>192</v>
       </c>
+      <c r="J47" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="K47" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>269</v>
+        <v>632</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N47" s="28" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="O47" s="28" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="P47" s="27"/>
       <c r="Q47" s="27"/>
@@ -4794,27 +4857,27 @@
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
       <c r="V47" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="W47" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="X47" s="29" t="s">
-        <v>269</v>
+        <v>260</v>
+      </c>
+      <c r="X47" t="s">
+        <v>264</v>
       </c>
       <c r="AB47" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC47" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>625</v>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>620</v>
       </c>
       <c r="D48">
         <v>189</v>
@@ -4826,19 +4889,19 @@
         <v>30</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="L48" s="36" t="s">
-        <v>269</v>
+        <v>300</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="P48" s="27"/>
       <c r="Q48" s="27"/>
@@ -4847,24 +4910,24 @@
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W48" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X48" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X48" t="s">
+        <v>264</v>
       </c>
       <c r="AB48" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>625</v>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>620</v>
       </c>
       <c r="D49">
         <v>189</v>
@@ -4878,37 +4941,37 @@
       <c r="K49" t="s">
         <v>65</v>
       </c>
-      <c r="L49" s="33" t="s">
-        <v>269</v>
+      <c r="L49" t="s">
+        <v>264</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V49" t="s">
         <v>122</v>
       </c>
       <c r="W49" t="s">
-        <v>629</v>
-      </c>
-      <c r="X49" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X49" t="s">
+        <v>264</v>
       </c>
       <c r="AB49" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>625</v>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>620</v>
       </c>
       <c r="D50">
         <v>189</v>
@@ -4920,19 +4983,19 @@
         <v>30</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>269</v>
+        <v>301</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="O50" s="27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="P50" s="27"/>
       <c r="Q50" s="27"/>
@@ -4944,21 +5007,21 @@
         <v>66</v>
       </c>
       <c r="W50" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X50" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X50" t="s">
+        <v>264</v>
       </c>
       <c r="AB50" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>625</v>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>620</v>
       </c>
       <c r="D51">
         <v>189</v>
@@ -4970,39 +5033,39 @@
         <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>593</v>
-      </c>
-      <c r="L51" s="33" t="s">
-        <v>269</v>
+        <v>588</v>
+      </c>
+      <c r="L51" t="s">
+        <v>264</v>
       </c>
       <c r="M51" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="V51" t="s">
         <v>122</v>
       </c>
       <c r="W51" t="s">
-        <v>629</v>
-      </c>
-      <c r="X51" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X51" t="s">
+        <v>264</v>
       </c>
       <c r="AB51" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B52" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>625</v>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>620</v>
       </c>
       <c r="D52">
         <v>189</v>
@@ -5016,37 +5079,37 @@
       <c r="K52" t="s">
         <v>172</v>
       </c>
-      <c r="L52" s="33" t="s">
-        <v>269</v>
+      <c r="L52" t="s">
+        <v>264</v>
       </c>
       <c r="M52" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="V52" t="s">
         <v>122</v>
       </c>
       <c r="W52" t="s">
-        <v>629</v>
-      </c>
-      <c r="X52" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X52" t="s">
+        <v>264</v>
       </c>
       <c r="AB52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>625</v>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>620</v>
       </c>
       <c r="D53">
         <v>189</v>
@@ -5060,37 +5123,37 @@
       <c r="K53" t="s">
         <v>67</v>
       </c>
-      <c r="L53" s="33" t="s">
-        <v>269</v>
+      <c r="L53" t="s">
+        <v>264</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="V53" t="s">
         <v>122</v>
       </c>
       <c r="W53" t="s">
-        <v>629</v>
-      </c>
-      <c r="X53" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X53" t="s">
+        <v>264</v>
       </c>
       <c r="AB53" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>625</v>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>620</v>
       </c>
       <c r="D54">
         <v>189</v>
@@ -5102,19 +5165,19 @@
         <v>30</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>269</v>
+        <v>302</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="P54" s="27"/>
       <c r="Q54" s="27"/>
@@ -5126,24 +5189,24 @@
         <v>68</v>
       </c>
       <c r="W54" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X54" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X54" t="s">
+        <v>264</v>
       </c>
       <c r="AB54" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC54" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>625</v>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>620</v>
       </c>
       <c r="D55">
         <v>189</v>
@@ -5157,37 +5220,37 @@
       <c r="K55" t="s">
         <v>69</v>
       </c>
-      <c r="L55" s="33" t="s">
-        <v>269</v>
+      <c r="L55" t="s">
+        <v>264</v>
       </c>
       <c r="M55" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="V55" t="s">
         <v>122</v>
       </c>
       <c r="W55" t="s">
-        <v>629</v>
-      </c>
-      <c r="X55" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X55" t="s">
+        <v>264</v>
       </c>
       <c r="AB55" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>625</v>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>620</v>
       </c>
       <c r="D56">
         <v>190</v>
@@ -5199,19 +5262,19 @@
         <v>30</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="L56" s="36" t="s">
-        <v>269</v>
+        <v>303</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N56" s="27" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="O56" s="27" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="P56" s="27"/>
       <c r="Q56" s="27"/>
@@ -5223,21 +5286,21 @@
         <v>70</v>
       </c>
       <c r="W56" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X56" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X56" t="s">
+        <v>264</v>
       </c>
       <c r="AB56" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>625</v>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>620</v>
       </c>
       <c r="D57">
         <v>190</v>
@@ -5251,37 +5314,37 @@
       <c r="K57" t="s">
         <v>71</v>
       </c>
-      <c r="L57" s="33" t="s">
-        <v>269</v>
+      <c r="L57" t="s">
+        <v>264</v>
       </c>
       <c r="M57" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="V57" t="s">
         <v>122</v>
       </c>
       <c r="W57" t="s">
-        <v>629</v>
-      </c>
-      <c r="X57" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X57" t="s">
+        <v>264</v>
       </c>
       <c r="AB57" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B58" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>625</v>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>620</v>
       </c>
       <c r="D58">
         <v>190</v>
@@ -5293,19 +5356,19 @@
         <v>30</v>
       </c>
       <c r="K58" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M58" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="L58" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>314</v>
-      </c>
       <c r="N58" s="27" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="O58" s="27" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P58" s="27"/>
       <c r="Q58" s="27"/>
@@ -5317,21 +5380,21 @@
         <v>72</v>
       </c>
       <c r="W58" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X58" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X58" t="s">
+        <v>264</v>
       </c>
       <c r="AB58" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>625</v>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>620</v>
       </c>
       <c r="D59">
         <v>190</v>
@@ -5345,37 +5408,37 @@
       <c r="K59" t="s">
         <v>73</v>
       </c>
-      <c r="L59" s="33" t="s">
-        <v>269</v>
+      <c r="L59" t="s">
+        <v>264</v>
       </c>
       <c r="M59" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="V59" t="s">
         <v>122</v>
       </c>
       <c r="W59" t="s">
-        <v>629</v>
-      </c>
-      <c r="X59" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X59" t="s">
+        <v>264</v>
       </c>
       <c r="AB59" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B60" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>625</v>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>620</v>
       </c>
       <c r="D60">
         <v>190</v>
@@ -5389,37 +5452,37 @@
       <c r="K60" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="33" t="s">
-        <v>269</v>
+      <c r="L60" t="s">
+        <v>264</v>
       </c>
       <c r="M60" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="V60" t="s">
         <v>122</v>
       </c>
       <c r="W60" t="s">
-        <v>629</v>
-      </c>
-      <c r="X60" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X60" t="s">
+        <v>264</v>
       </c>
       <c r="AB60" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>625</v>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>620</v>
       </c>
       <c r="D61">
         <v>190</v>
@@ -5431,19 +5494,19 @@
         <v>30</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L61" s="36" t="s">
-        <v>269</v>
+        <v>306</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="O61" s="27" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="P61" s="27"/>
       <c r="Q61" s="27"/>
@@ -5455,21 +5518,21 @@
         <v>75</v>
       </c>
       <c r="W61" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X61" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X61" t="s">
+        <v>264</v>
       </c>
       <c r="AB61" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B62" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>625</v>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>620</v>
       </c>
       <c r="D62">
         <v>190</v>
@@ -5483,37 +5546,37 @@
       <c r="K62" t="s">
         <v>76</v>
       </c>
-      <c r="L62" s="33" t="s">
-        <v>269</v>
+      <c r="L62" t="s">
+        <v>264</v>
       </c>
       <c r="M62" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="V62" t="s">
         <v>122</v>
       </c>
       <c r="W62" t="s">
-        <v>629</v>
-      </c>
-      <c r="X62" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X62" t="s">
+        <v>264</v>
       </c>
       <c r="AB62" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>625</v>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>620</v>
       </c>
       <c r="D63">
         <v>190</v>
@@ -5525,39 +5588,39 @@
         <v>30</v>
       </c>
       <c r="K63" t="s">
-        <v>268</v>
-      </c>
-      <c r="L63" s="33" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="L63" t="s">
+        <v>264</v>
       </c>
       <c r="M63" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="V63" t="s">
         <v>122</v>
       </c>
       <c r="W63" t="s">
-        <v>629</v>
-      </c>
-      <c r="X63" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X63" t="s">
+        <v>264</v>
       </c>
       <c r="AB63" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B64" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>625</v>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>620</v>
       </c>
       <c r="D64">
         <v>190</v>
@@ -5571,37 +5634,37 @@
       <c r="K64" t="s">
         <v>77</v>
       </c>
-      <c r="L64" s="33" t="s">
-        <v>269</v>
+      <c r="L64" t="s">
+        <v>264</v>
       </c>
       <c r="M64" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O64" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="V64" t="s">
         <v>122</v>
       </c>
       <c r="W64" t="s">
-        <v>629</v>
-      </c>
-      <c r="X64" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X64" t="s">
+        <v>264</v>
       </c>
       <c r="AB64" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B65" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>625</v>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>620</v>
       </c>
       <c r="D65">
         <v>191</v>
@@ -5615,37 +5678,37 @@
       <c r="K65" t="s">
         <v>78</v>
       </c>
-      <c r="L65" s="33" t="s">
-        <v>269</v>
+      <c r="L65" t="s">
+        <v>264</v>
       </c>
       <c r="M65" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O65" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="V65" t="s">
         <v>122</v>
       </c>
       <c r="W65" t="s">
-        <v>629</v>
-      </c>
-      <c r="X65" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X65" t="s">
+        <v>264</v>
       </c>
       <c r="AB65" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>625</v>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>620</v>
       </c>
       <c r="D66">
         <v>191</v>
@@ -5659,37 +5722,37 @@
       <c r="K66" t="s">
         <v>79</v>
       </c>
-      <c r="L66" s="33" t="s">
-        <v>269</v>
+      <c r="L66" t="s">
+        <v>264</v>
       </c>
       <c r="M66" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="V66" t="s">
         <v>122</v>
       </c>
       <c r="W66" t="s">
-        <v>629</v>
-      </c>
-      <c r="X66" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X66" t="s">
+        <v>264</v>
       </c>
       <c r="AB66" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B67" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>625</v>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>620</v>
       </c>
       <c r="D67">
         <v>191</v>
@@ -5703,37 +5766,37 @@
       <c r="K67" t="s">
         <v>80</v>
       </c>
-      <c r="L67" s="33" t="s">
-        <v>269</v>
+      <c r="L67" t="s">
+        <v>264</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="V67" t="s">
         <v>122</v>
       </c>
       <c r="W67" t="s">
-        <v>629</v>
-      </c>
-      <c r="X67" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X67" t="s">
+        <v>264</v>
       </c>
       <c r="AB67" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B68" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>625</v>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>620</v>
       </c>
       <c r="D68">
         <v>191</v>
@@ -5747,37 +5810,37 @@
       <c r="K68" t="s">
         <v>81</v>
       </c>
-      <c r="L68" s="33" t="s">
-        <v>269</v>
+      <c r="L68" t="s">
+        <v>264</v>
       </c>
       <c r="M68" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N68" s="15" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="V68" t="s">
         <v>122</v>
       </c>
       <c r="W68" t="s">
-        <v>629</v>
-      </c>
-      <c r="X68" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X68" t="s">
+        <v>264</v>
       </c>
       <c r="AB68" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B69" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>625</v>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>620</v>
       </c>
       <c r="D69">
         <v>191</v>
@@ -5791,37 +5854,37 @@
       <c r="K69" t="s">
         <v>82</v>
       </c>
-      <c r="L69" s="33" t="s">
-        <v>269</v>
+      <c r="L69" t="s">
+        <v>264</v>
       </c>
       <c r="M69" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N69" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="V69" t="s">
         <v>122</v>
       </c>
       <c r="W69" t="s">
-        <v>629</v>
-      </c>
-      <c r="X69" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X69" t="s">
+        <v>264</v>
       </c>
       <c r="AB69" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B70" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>625</v>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>620</v>
       </c>
       <c r="D70">
         <v>191</v>
@@ -5835,37 +5898,37 @@
       <c r="K70" t="s">
         <v>83</v>
       </c>
-      <c r="L70" s="33" t="s">
-        <v>269</v>
+      <c r="L70" t="s">
+        <v>264</v>
       </c>
       <c r="M70" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N70" s="15" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="V70" t="s">
         <v>122</v>
       </c>
       <c r="W70" t="s">
-        <v>629</v>
-      </c>
-      <c r="X70" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X70" t="s">
+        <v>264</v>
       </c>
       <c r="AB70" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B71" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>625</v>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>620</v>
       </c>
       <c r="D71">
         <v>192</v>
@@ -5879,46 +5942,46 @@
       <c r="K71" t="s">
         <v>84</v>
       </c>
-      <c r="L71" s="33" t="s">
-        <v>269</v>
+      <c r="L71" t="s">
+        <v>264</v>
       </c>
       <c r="M71" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N71" s="15" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="Q71" s="15" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="V71" t="s">
         <v>122</v>
       </c>
       <c r="W71" t="s">
-        <v>629</v>
-      </c>
-      <c r="X71" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X71" t="s">
+        <v>264</v>
       </c>
       <c r="AB71" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC71" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B72" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>625</v>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>620</v>
       </c>
       <c r="D72">
         <v>192</v>
@@ -5932,17 +5995,17 @@
       <c r="K72" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L72" s="36" t="s">
-        <v>269</v>
+      <c r="L72" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M72" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="O72" s="27" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="P72" s="27"/>
       <c r="Q72" s="27"/>
@@ -5954,21 +6017,21 @@
         <v>85</v>
       </c>
       <c r="W72" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X72" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X72" t="s">
+        <v>264</v>
       </c>
       <c r="AB72" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B73" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>625</v>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>620</v>
       </c>
       <c r="D73">
         <v>192</v>
@@ -5982,37 +6045,37 @@
       <c r="K73" t="s">
         <v>86</v>
       </c>
-      <c r="L73" s="33" t="s">
-        <v>269</v>
+      <c r="L73" t="s">
+        <v>264</v>
       </c>
       <c r="M73" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N73" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="V73" t="s">
         <v>122</v>
       </c>
       <c r="W73" t="s">
-        <v>629</v>
-      </c>
-      <c r="X73" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X73" t="s">
+        <v>264</v>
       </c>
       <c r="AB73" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B74" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>625</v>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>620</v>
       </c>
       <c r="D74">
         <v>192</v>
@@ -6026,37 +6089,37 @@
       <c r="K74" t="s">
         <v>87</v>
       </c>
-      <c r="L74" s="33" t="s">
-        <v>269</v>
+      <c r="L74" t="s">
+        <v>264</v>
       </c>
       <c r="M74" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="V74" t="s">
         <v>122</v>
       </c>
       <c r="W74" t="s">
-        <v>629</v>
-      </c>
-      <c r="X74" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X74" t="s">
+        <v>264</v>
       </c>
       <c r="AB74" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B75" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>625</v>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>620</v>
       </c>
       <c r="D75">
         <v>192</v>
@@ -6068,19 +6131,19 @@
         <v>30</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="L75" s="36" t="s">
-        <v>269</v>
+        <v>307</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M75" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O75" s="27" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="P75" s="27"/>
       <c r="Q75" s="27"/>
@@ -6092,21 +6155,21 @@
         <v>88</v>
       </c>
       <c r="W75" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X75" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X75" t="s">
+        <v>264</v>
       </c>
       <c r="AB75" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B76" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>625</v>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>620</v>
       </c>
       <c r="D76">
         <v>192</v>
@@ -6120,37 +6183,37 @@
       <c r="K76" t="s">
         <v>89</v>
       </c>
-      <c r="L76" s="33" t="s">
-        <v>269</v>
+      <c r="L76" t="s">
+        <v>264</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N76" s="16" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="V76" t="s">
         <v>122</v>
       </c>
       <c r="W76" t="s">
-        <v>629</v>
-      </c>
-      <c r="X76" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X76" t="s">
+        <v>264</v>
       </c>
       <c r="AB76" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B77" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>625</v>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>620</v>
       </c>
       <c r="D77">
         <v>192</v>
@@ -6159,19 +6222,19 @@
         <v>194</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="L77" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="M77" s="38" t="s">
-        <v>358</v>
+        <v>623</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="M77" s="29" t="s">
+        <v>353</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="O77" s="27" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="P77" s="27"/>
       <c r="Q77" s="27"/>
@@ -6183,24 +6246,24 @@
         <v>90</v>
       </c>
       <c r="W77" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="X77" s="29" t="s">
-        <v>269</v>
+        <v>260</v>
+      </c>
+      <c r="X77" t="s">
+        <v>264</v>
       </c>
       <c r="AB77" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC77" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B78" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>625</v>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>620</v>
       </c>
       <c r="D78">
         <v>192</v>
@@ -6212,19 +6275,19 @@
         <v>30</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="L78" s="36" t="s">
-        <v>269</v>
+        <v>308</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="O78" s="27" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P78" s="27"/>
       <c r="Q78" s="27"/>
@@ -6236,21 +6299,21 @@
         <v>91</v>
       </c>
       <c r="W78" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X78" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X78" t="s">
+        <v>264</v>
       </c>
       <c r="AB78" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B79" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>625</v>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>620</v>
       </c>
       <c r="D79">
         <v>192</v>
@@ -6264,37 +6327,37 @@
       <c r="K79" t="s">
         <v>92</v>
       </c>
-      <c r="L79" s="33" t="s">
-        <v>269</v>
+      <c r="L79" t="s">
+        <v>264</v>
       </c>
       <c r="M79" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N79" s="15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="V79" t="s">
         <v>122</v>
       </c>
       <c r="W79" t="s">
-        <v>629</v>
-      </c>
-      <c r="X79" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X79" t="s">
+        <v>264</v>
       </c>
       <c r="AB79" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B80" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>625</v>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>620</v>
       </c>
       <c r="D80">
         <v>193</v>
@@ -6308,37 +6371,37 @@
       <c r="K80" t="s">
         <v>93</v>
       </c>
-      <c r="L80" s="33" t="s">
-        <v>269</v>
+      <c r="L80" t="s">
+        <v>264</v>
       </c>
       <c r="M80" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="V80" t="s">
         <v>122</v>
       </c>
       <c r="W80" t="s">
-        <v>629</v>
-      </c>
-      <c r="X80" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X80" t="s">
+        <v>264</v>
       </c>
       <c r="AB80" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B81" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>625</v>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>620</v>
       </c>
       <c r="D81">
         <v>193</v>
@@ -6352,37 +6415,37 @@
       <c r="K81" t="s">
         <v>94</v>
       </c>
-      <c r="L81" s="33" t="s">
-        <v>269</v>
+      <c r="L81" t="s">
+        <v>264</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N81" s="15" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="O81" s="15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="V81" t="s">
         <v>122</v>
       </c>
       <c r="W81" t="s">
-        <v>629</v>
-      </c>
-      <c r="X81" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X81" t="s">
+        <v>264</v>
       </c>
       <c r="AB81" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B82" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>625</v>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>620</v>
       </c>
       <c r="D82">
         <v>193</v>
@@ -6394,39 +6457,39 @@
         <v>30</v>
       </c>
       <c r="K82" t="s">
-        <v>557</v>
-      </c>
-      <c r="L82" s="33" t="s">
-        <v>269</v>
+        <v>552</v>
+      </c>
+      <c r="L82" t="s">
+        <v>264</v>
       </c>
       <c r="M82" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N82" s="15" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="V82" t="s">
         <v>122</v>
       </c>
       <c r="W82" t="s">
-        <v>629</v>
-      </c>
-      <c r="X82" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X82" t="s">
+        <v>264</v>
       </c>
       <c r="AB82" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="83" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B83" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>625</v>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>620</v>
       </c>
       <c r="D83">
         <v>193</v>
@@ -6438,39 +6501,39 @@
         <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>558</v>
-      </c>
-      <c r="L83" s="33" t="s">
-        <v>269</v>
+        <v>553</v>
+      </c>
+      <c r="L83" t="s">
+        <v>264</v>
       </c>
       <c r="M83" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N83" s="15" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="O83" s="15" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="V83" t="s">
         <v>122</v>
       </c>
       <c r="W83" t="s">
-        <v>629</v>
-      </c>
-      <c r="X83" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X83" t="s">
+        <v>264</v>
       </c>
       <c r="AB83" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B84" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>625</v>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>620</v>
       </c>
       <c r="D84">
         <v>193</v>
@@ -6482,19 +6545,19 @@
         <v>30</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="L84" s="36" t="s">
-        <v>269</v>
+        <v>305</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="O84" s="27" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="P84" s="27"/>
       <c r="Q84" s="27"/>
@@ -6506,21 +6569,21 @@
         <v>95</v>
       </c>
       <c r="W84" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="X84" s="29" t="s">
-        <v>269</v>
+        <v>261</v>
+      </c>
+      <c r="X84" t="s">
+        <v>264</v>
       </c>
       <c r="AB84" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B85" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>625</v>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>620</v>
       </c>
       <c r="D85">
         <v>193</v>
@@ -6534,37 +6597,37 @@
       <c r="K85" t="s">
         <v>96</v>
       </c>
-      <c r="L85" s="33" t="s">
-        <v>269</v>
+      <c r="L85" t="s">
+        <v>264</v>
       </c>
       <c r="M85" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N85" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O85" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="V85" t="s">
         <v>122</v>
       </c>
       <c r="W85" t="s">
-        <v>629</v>
-      </c>
-      <c r="X85" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X85" t="s">
+        <v>264</v>
       </c>
       <c r="AB85" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B86" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>625</v>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>620</v>
       </c>
       <c r="D86">
         <v>193</v>
@@ -6578,37 +6641,37 @@
       <c r="K86" t="s">
         <v>97</v>
       </c>
-      <c r="L86" s="33" t="s">
-        <v>269</v>
+      <c r="L86" t="s">
+        <v>264</v>
       </c>
       <c r="M86" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N86" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O86" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="V86" t="s">
         <v>122</v>
       </c>
       <c r="W86" t="s">
-        <v>629</v>
-      </c>
-      <c r="X86" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X86" t="s">
+        <v>264</v>
       </c>
       <c r="AB86" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B87" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="29" t="s">
-        <v>625</v>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>620</v>
       </c>
       <c r="D87">
         <v>194</v>
@@ -6620,39 +6683,39 @@
         <v>30</v>
       </c>
       <c r="K87" t="s">
-        <v>584</v>
-      </c>
-      <c r="L87" s="33" t="s">
-        <v>269</v>
+        <v>579</v>
+      </c>
+      <c r="L87" t="s">
+        <v>264</v>
       </c>
       <c r="M87" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N87" s="15" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="O87" s="15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="V87" t="s">
         <v>122</v>
       </c>
       <c r="W87" t="s">
-        <v>629</v>
-      </c>
-      <c r="X87" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X87" t="s">
+        <v>264</v>
       </c>
       <c r="AB87" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B88" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>625</v>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>620</v>
       </c>
       <c r="D88">
         <v>194</v>
@@ -6666,37 +6729,37 @@
       <c r="K88" t="s">
         <v>98</v>
       </c>
-      <c r="L88" s="33" t="s">
-        <v>269</v>
+      <c r="L88" t="s">
+        <v>264</v>
       </c>
       <c r="M88" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O88" s="15" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="V88" t="s">
         <v>122</v>
       </c>
       <c r="W88" t="s">
-        <v>629</v>
-      </c>
-      <c r="X88" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X88" t="s">
+        <v>264</v>
       </c>
       <c r="AB88" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B89" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>625</v>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>620</v>
       </c>
       <c r="D89">
         <v>194</v>
@@ -6710,26 +6773,26 @@
       <c r="K89" t="s">
         <v>99</v>
       </c>
-      <c r="L89" s="33" t="s">
-        <v>269</v>
+      <c r="L89" t="s">
+        <v>264</v>
       </c>
       <c r="M89" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N89" s="15" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O89" s="15" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="V89" t="s">
         <v>122</v>
       </c>
       <c r="W89" t="s">
-        <v>629</v>
-      </c>
-      <c r="X89" s="29" t="s">
-        <v>269</v>
+        <v>624</v>
+      </c>
+      <c r="X89" t="s">
+        <v>264</v>
       </c>
       <c r="AB89" s="8" t="s">
         <v>30</v>
@@ -6770,10 +6833,10 @@
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
       <c r="W90" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X90" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB90" s="8" t="s">
         <v>30</v>
@@ -6802,22 +6865,22 @@
         <v>31</v>
       </c>
       <c r="M91" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N91" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="V91" t="s">
         <v>102</v>
       </c>
       <c r="W91" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X91" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB91" s="8" t="s">
         <v>30</v>
@@ -6846,22 +6909,22 @@
         <v>31</v>
       </c>
       <c r="M92" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="V92" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="W92" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X92" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB92" s="8" t="s">
         <v>30</v>
@@ -6890,22 +6953,22 @@
         <v>31</v>
       </c>
       <c r="M93" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="V93" t="s">
         <v>104</v>
       </c>
       <c r="W93" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X93" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB93" s="8" t="s">
         <v>30</v>
@@ -6934,22 +6997,22 @@
         <v>31</v>
       </c>
       <c r="M94" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="V94" t="s">
         <v>105</v>
       </c>
       <c r="W94" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X94" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB94" s="8" t="s">
         <v>30</v>
@@ -6990,10 +7053,10 @@
       <c r="U95" s="12"/>
       <c r="V95" s="12"/>
       <c r="W95" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X95" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB95" s="8" t="s">
         <v>30</v>
@@ -7022,22 +7085,22 @@
         <v>31</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="V96" t="s">
         <v>108</v>
       </c>
       <c r="W96" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X96" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB96" s="8" t="s">
         <v>30</v>
@@ -7066,22 +7129,22 @@
         <v>31</v>
       </c>
       <c r="M97" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N97" s="16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="V97" t="s">
         <v>109</v>
       </c>
       <c r="W97" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X97" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB97" s="8" t="s">
         <v>30</v>
@@ -7110,22 +7173,22 @@
         <v>31</v>
       </c>
       <c r="M98" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O98" s="23" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="V98" t="s">
         <v>111</v>
       </c>
       <c r="W98" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X98" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB98" s="8" t="s">
         <v>30</v>
@@ -7154,28 +7217,28 @@
         <v>31</v>
       </c>
       <c r="M99" s="26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N99" s="15" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="V99" t="s">
         <v>112</v>
       </c>
       <c r="W99" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X99" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB99" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC99" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.25">
@@ -7213,10 +7276,10 @@
       <c r="U100" s="12"/>
       <c r="V100" s="12"/>
       <c r="W100" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X100" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB100" s="8" t="s">
         <v>30</v>
@@ -7245,28 +7308,28 @@
         <v>31</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N101" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="V101" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="W101" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X101" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB101" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC101" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.25">
@@ -7292,22 +7355,22 @@
         <v>31</v>
       </c>
       <c r="M102" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N102" s="15" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="V102" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="W102" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X102" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB102" s="8" t="s">
         <v>30</v>
@@ -7336,22 +7399,22 @@
         <v>31</v>
       </c>
       <c r="M103" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N103" s="15" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="V103" t="s">
         <v>117</v>
       </c>
       <c r="W103" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X103" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB103" s="8" t="s">
         <v>30</v>
@@ -7392,10 +7455,10 @@
       <c r="U104" s="12"/>
       <c r="V104" s="12"/>
       <c r="W104" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X104" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB104" s="8" t="s">
         <v>30</v>
@@ -7424,22 +7487,22 @@
         <v>31</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N105" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O105" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="V105" t="s">
         <v>118</v>
       </c>
       <c r="W105" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X105" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB105" s="8" t="s">
         <v>30</v>
@@ -7468,22 +7531,22 @@
         <v>31</v>
       </c>
       <c r="M106" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N106" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="V106" t="s">
         <v>119</v>
       </c>
       <c r="W106" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X106" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB106" s="8" t="s">
         <v>30</v>
@@ -7506,28 +7569,28 @@
         <v>30</v>
       </c>
       <c r="K107" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="L107" t="s">
         <v>31</v>
       </c>
       <c r="M107" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N107" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O107" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="V107" t="s">
         <v>120</v>
       </c>
       <c r="W107" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X107" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB107" s="8" t="s">
         <v>30</v>
@@ -7549,35 +7612,35 @@
       <c r="J108" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K108" s="41" t="s">
-        <v>642</v>
+      <c r="K108" t="s">
+        <v>637</v>
       </c>
       <c r="L108" t="s">
         <v>31</v>
       </c>
       <c r="M108" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N108" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O108" s="21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="V108" t="s">
         <v>121</v>
       </c>
       <c r="W108" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X108" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB108" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC108" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="2:29" x14ac:dyDescent="0.25">
@@ -7597,34 +7660,34 @@
         <v>30</v>
       </c>
       <c r="K109" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L109" t="s">
         <v>31</v>
       </c>
       <c r="M109" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="O109" s="15" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="V109" t="s">
         <v>122</v>
       </c>
       <c r="W109" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X109" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB109" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC109" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="2:29" x14ac:dyDescent="0.25">
@@ -7662,10 +7725,10 @@
       <c r="U110" s="12"/>
       <c r="V110" s="12"/>
       <c r="W110" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X110" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB110" s="8" t="s">
         <v>30</v>
@@ -7694,22 +7757,22 @@
         <v>31</v>
       </c>
       <c r="M111" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N111" s="15" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O111" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="V111" t="s">
         <v>123</v>
       </c>
       <c r="W111" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X111" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB111" s="8" t="s">
         <v>30</v>
@@ -7738,22 +7801,22 @@
         <v>31</v>
       </c>
       <c r="M112" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="V112" t="s">
         <v>124</v>
       </c>
       <c r="W112" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X112" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB112" s="8" t="s">
         <v>30</v>
@@ -7794,10 +7857,10 @@
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
       <c r="W113" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X113" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB113" s="8" t="s">
         <v>30</v>
@@ -7826,22 +7889,22 @@
         <v>31</v>
       </c>
       <c r="M114" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N114" s="15" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="V114" t="s">
         <v>126</v>
       </c>
       <c r="W114" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X114" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB114" s="8" t="s">
         <v>30</v>
@@ -7864,28 +7927,28 @@
         <v>30</v>
       </c>
       <c r="K115" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L115" t="s">
         <v>31</v>
       </c>
       <c r="M115" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N115" s="16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O115" s="16" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="V115" t="s">
         <v>127</v>
       </c>
       <c r="W115" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X115" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB115" s="8" t="s">
         <v>30</v>
@@ -7908,28 +7971,28 @@
         <v>30</v>
       </c>
       <c r="K116" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L116" t="s">
         <v>31</v>
       </c>
       <c r="M116" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N116" s="15" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="V116" t="s">
         <v>128</v>
       </c>
       <c r="W116" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X116" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB116" s="8" t="s">
         <v>30</v>
@@ -7970,10 +8033,10 @@
       <c r="U117" s="12"/>
       <c r="V117" s="12"/>
       <c r="W117" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X117" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB117" s="8" t="s">
         <v>30</v>
@@ -7996,28 +8059,28 @@
         <v>30</v>
       </c>
       <c r="K118" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L118" t="s">
         <v>31</v>
       </c>
       <c r="M118" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N118" s="15" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="O118" s="15" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="V118" t="s">
         <v>129</v>
       </c>
       <c r="W118" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X118" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB118" s="8" t="s">
         <v>30</v>
@@ -8046,22 +8109,22 @@
         <v>31</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N119" s="15" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="V119" t="s">
         <v>131</v>
       </c>
       <c r="W119" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X119" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB119" s="8" t="s">
         <v>30</v>
@@ -8102,10 +8165,10 @@
       <c r="U120" s="12"/>
       <c r="V120" s="12"/>
       <c r="W120" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X120" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB120" s="8" t="s">
         <v>30</v>
@@ -8128,34 +8191,34 @@
         <v>30</v>
       </c>
       <c r="K121" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L121" t="s">
         <v>31</v>
       </c>
       <c r="M121" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N121" s="15" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="O121" s="15" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="V121" t="s">
         <v>132</v>
       </c>
       <c r="W121" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X121" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB121" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC121" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="122" spans="2:29" x14ac:dyDescent="0.25">
@@ -8181,22 +8244,22 @@
         <v>31</v>
       </c>
       <c r="M122" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N122" s="16" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O122" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="V122" t="s">
         <v>133</v>
       </c>
       <c r="W122" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X122" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB122" s="8" t="s">
         <v>30</v>
@@ -8225,22 +8288,22 @@
         <v>31</v>
       </c>
       <c r="M123" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N123" s="15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="V123" t="s">
         <v>136</v>
       </c>
       <c r="W123" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X123" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB123" s="8" t="s">
         <v>30</v>
@@ -8281,10 +8344,10 @@
       <c r="U124" s="12"/>
       <c r="V124" s="12"/>
       <c r="W124" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X124" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB124" s="8" t="s">
         <v>30</v>
@@ -8307,28 +8370,28 @@
         <v>30</v>
       </c>
       <c r="K125" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L125" t="s">
         <v>31</v>
       </c>
       <c r="M125" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N125" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="V125" t="s">
         <v>137</v>
       </c>
       <c r="W125" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X125" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB125" s="8" t="s">
         <v>30</v>
@@ -8357,28 +8420,28 @@
         <v>31</v>
       </c>
       <c r="M126" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N126" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="O126" s="15" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="V126" t="s">
         <v>139</v>
       </c>
       <c r="W126" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X126" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB126" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC126" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="127" spans="2:29" x14ac:dyDescent="0.25">
@@ -8416,10 +8479,10 @@
       <c r="U127" s="12"/>
       <c r="V127" s="12"/>
       <c r="W127" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X127" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB127" s="8" t="s">
         <v>30</v>
@@ -8442,28 +8505,28 @@
         <v>30</v>
       </c>
       <c r="K128" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L128" t="s">
         <v>31</v>
       </c>
       <c r="M128" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N128" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="O128" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="V128" t="s">
         <v>140</v>
       </c>
       <c r="W128" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X128" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB128" s="8" t="s">
         <v>30</v>
@@ -8486,28 +8549,28 @@
         <v>30</v>
       </c>
       <c r="K129" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L129" t="s">
         <v>31</v>
       </c>
       <c r="M129" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N129" s="15" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="O129" s="15" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="V129" t="s">
         <v>141</v>
       </c>
       <c r="W129" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X129" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB129" s="8" t="s">
         <v>30</v>
@@ -8530,28 +8593,28 @@
         <v>30</v>
       </c>
       <c r="K130" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L130" t="s">
         <v>31</v>
       </c>
       <c r="M130" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N130" s="15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="O130" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="V130" t="s">
         <v>142</v>
       </c>
       <c r="W130" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X130" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB130" s="8" t="s">
         <v>30</v>
@@ -8574,28 +8637,28 @@
         <v>30</v>
       </c>
       <c r="K131" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L131" t="s">
         <v>31</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N131" s="15" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O131" s="15" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="V131" t="s">
         <v>143</v>
       </c>
       <c r="W131" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X131" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB131" s="8" t="s">
         <v>30</v>
@@ -8636,10 +8699,10 @@
       <c r="U132" s="12"/>
       <c r="V132" s="12"/>
       <c r="W132" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X132" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB132" s="8" t="s">
         <v>30</v>
@@ -8662,28 +8725,28 @@
         <v>30</v>
       </c>
       <c r="K133" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L133" t="s">
         <v>31</v>
       </c>
       <c r="M133" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N133" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="O133" s="15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="V133" t="s">
         <v>144</v>
       </c>
       <c r="W133" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X133" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB133" s="8" t="s">
         <v>30</v>
@@ -8706,28 +8769,28 @@
         <v>30</v>
       </c>
       <c r="K134" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L134" t="s">
         <v>31</v>
       </c>
       <c r="M134" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N134" s="15" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O134" s="15" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="V134" t="s">
         <v>145</v>
       </c>
       <c r="W134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X134" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB134" s="8" t="s">
         <v>30</v>
@@ -8750,28 +8813,28 @@
         <v>30</v>
       </c>
       <c r="K135" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L135" t="s">
         <v>31</v>
       </c>
       <c r="M135" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N135" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="O135" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="V135" t="s">
         <v>122</v>
       </c>
       <c r="W135" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X135" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB135" s="8" t="s">
         <v>30</v>
@@ -8794,34 +8857,34 @@
         <v>30</v>
       </c>
       <c r="K136" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L136" t="s">
         <v>31</v>
       </c>
       <c r="M136" s="15" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N136" s="15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O136" s="15" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="V136" t="s">
         <v>122</v>
       </c>
       <c r="W136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X136" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB136" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC136" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="2:29" x14ac:dyDescent="0.25">
@@ -8859,10 +8922,10 @@
       <c r="U137" s="12"/>
       <c r="V137" s="12"/>
       <c r="W137" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X137" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB137" s="8" t="s">
         <v>30</v>
@@ -8891,22 +8954,22 @@
         <v>31</v>
       </c>
       <c r="M138" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N138" s="15" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="O138" s="15" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="V138" t="s">
         <v>146</v>
       </c>
       <c r="W138" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X138" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB138" s="8" t="s">
         <v>30</v>
@@ -8935,22 +8998,22 @@
         <v>31</v>
       </c>
       <c r="M139" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N139" s="15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O139" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="V139" t="s">
         <v>147</v>
       </c>
       <c r="W139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X139" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB139" s="8" t="s">
         <v>30</v>
@@ -8973,34 +9036,34 @@
         <v>30</v>
       </c>
       <c r="K140" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L140" t="s">
         <v>31</v>
       </c>
       <c r="M140" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N140" s="15" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="O140" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="V140" t="s">
         <v>122</v>
       </c>
       <c r="W140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X140" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB140" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC140" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="141" spans="2:29" x14ac:dyDescent="0.25">
@@ -9038,10 +9101,10 @@
       <c r="U141" s="12"/>
       <c r="V141" s="12"/>
       <c r="W141" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X141" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB141" s="8" t="s">
         <v>30</v>
@@ -9070,22 +9133,22 @@
         <v>31</v>
       </c>
       <c r="M142" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N142" s="15" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="V142" t="s">
         <v>148</v>
       </c>
       <c r="W142" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X142" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB142" s="8" t="s">
         <v>30</v>
@@ -9114,28 +9177,28 @@
         <v>31</v>
       </c>
       <c r="M143" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N143" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O143" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="V143" t="s">
         <v>149</v>
       </c>
       <c r="W143" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X143" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB143" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC143" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="2:29" x14ac:dyDescent="0.25">
@@ -9161,22 +9224,22 @@
         <v>31</v>
       </c>
       <c r="M144" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N144" s="15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O144" s="15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="V144" t="s">
         <v>150</v>
       </c>
       <c r="W144" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X144" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB144" s="8" t="s">
         <v>30</v>
@@ -9217,10 +9280,10 @@
       <c r="U145" s="12"/>
       <c r="V145" s="12"/>
       <c r="W145" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X145" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB145" s="8" t="s">
         <v>30</v>
@@ -9249,22 +9312,22 @@
         <v>31</v>
       </c>
       <c r="M146" s="17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N146" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O146" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="V146" t="s">
         <v>151</v>
       </c>
       <c r="W146" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X146" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB146" s="8" t="s">
         <v>30</v>
@@ -9293,22 +9356,22 @@
         <v>31</v>
       </c>
       <c r="M147" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N147" s="15" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="O147" s="15" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="V147" t="s">
         <v>152</v>
       </c>
       <c r="W147" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X147" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB147" s="8" t="s">
         <v>30</v>
@@ -9337,28 +9400,28 @@
         <v>31</v>
       </c>
       <c r="M148" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="N148" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="O148" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="N148" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="O148" s="16" t="s">
-        <v>322</v>
       </c>
       <c r="V148" t="s">
         <v>122</v>
       </c>
       <c r="W148" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X148" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB148" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC148" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.25">
@@ -9396,10 +9459,10 @@
       <c r="U149" s="12"/>
       <c r="V149" s="12"/>
       <c r="W149" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X149" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB149" s="8" t="s">
         <v>30</v>
@@ -9428,28 +9491,28 @@
         <v>31</v>
       </c>
       <c r="M150" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N150" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="O150" s="15" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="V150" t="s">
         <v>155</v>
       </c>
       <c r="W150" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X150" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB150" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC150" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="151" spans="2:29" x14ac:dyDescent="0.25">
@@ -9475,22 +9538,22 @@
         <v>31</v>
       </c>
       <c r="M151" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N151" s="15" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O151" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="V151" t="s">
         <v>156</v>
       </c>
       <c r="W151" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X151" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB151" s="8" t="s">
         <v>30</v>
@@ -9513,28 +9576,28 @@
         <v>30</v>
       </c>
       <c r="K152" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L152" t="s">
         <v>31</v>
       </c>
       <c r="M152" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N152" s="16" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O152" s="16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="V152" t="s">
         <v>157</v>
       </c>
       <c r="W152" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X152" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB152" s="8" t="s">
         <v>30</v>
@@ -9575,10 +9638,10 @@
       <c r="U153" s="12"/>
       <c r="V153" s="12"/>
       <c r="W153" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X153" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB153" s="8" t="s">
         <v>30</v>
@@ -9607,28 +9670,28 @@
         <v>31</v>
       </c>
       <c r="M154" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N154" s="16" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="O154" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="V154" t="s">
         <v>159</v>
       </c>
       <c r="W154" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X154" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB154" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC154" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.25">
@@ -9654,22 +9717,22 @@
         <v>31</v>
       </c>
       <c r="M155" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N155" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O155" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="V155" t="s">
         <v>160</v>
       </c>
       <c r="W155" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X155" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB155" s="8" t="s">
         <v>30</v>
@@ -9710,10 +9773,10 @@
       <c r="U156" s="12"/>
       <c r="V156" s="12"/>
       <c r="W156" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X156" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB156" s="8" t="s">
         <v>30</v>
@@ -9742,22 +9805,22 @@
         <v>31</v>
       </c>
       <c r="M157" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N157" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O157" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="V157" t="s">
         <v>161</v>
       </c>
       <c r="W157" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X157" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB157" s="8" t="s">
         <v>30</v>
@@ -9780,28 +9843,28 @@
         <v>30</v>
       </c>
       <c r="K158" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L158" t="s">
         <v>31</v>
       </c>
       <c r="M158" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N158" s="15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="O158" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="V158" t="s">
         <v>162</v>
       </c>
       <c r="W158" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X158" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB158" s="8" t="s">
         <v>30</v>
@@ -9830,22 +9893,22 @@
         <v>31</v>
       </c>
       <c r="M159" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N159" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O159" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="V159" t="s">
         <v>163</v>
       </c>
       <c r="W159" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X159" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB159" s="8" t="s">
         <v>30</v>
@@ -9874,22 +9937,22 @@
         <v>31</v>
       </c>
       <c r="M160" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N160" s="15" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O160" s="15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="V160" t="s">
         <v>165</v>
       </c>
       <c r="W160" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X160" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB160" s="8" t="s">
         <v>30</v>
@@ -9932,10 +9995,10 @@
         <v>166</v>
       </c>
       <c r="W161" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X161" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB161" s="8" t="s">
         <v>30</v>
@@ -9958,34 +10021,34 @@
         <v>30</v>
       </c>
       <c r="K162" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="L162" t="s">
         <v>31</v>
       </c>
       <c r="M162" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N162" s="15" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="O162" s="15" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="V162" t="s">
         <v>167</v>
       </c>
       <c r="W162" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X162" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB162" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC162" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="2:29" x14ac:dyDescent="0.25">
@@ -10011,22 +10074,22 @@
         <v>31</v>
       </c>
       <c r="M163" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N163" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O163" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="V163" t="s">
         <v>169</v>
       </c>
       <c r="W163" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X163" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB163" s="8" t="s">
         <v>30</v>
@@ -10049,28 +10112,28 @@
         <v>30</v>
       </c>
       <c r="K164" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L164" t="s">
         <v>31</v>
       </c>
       <c r="M164" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N164" s="15" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O164" s="15" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="V164" t="s">
         <v>171</v>
       </c>
       <c r="W164" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X164" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB164" s="8" t="s">
         <v>30</v>
@@ -10099,22 +10162,22 @@
         <v>31</v>
       </c>
       <c r="M165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N165" s="15" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O165" s="15" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="V165" t="s">
         <v>170</v>
       </c>
       <c r="W165" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X165" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB165" s="8" t="s">
         <v>30</v>
@@ -10155,10 +10218,10 @@
       <c r="U166" s="12"/>
       <c r="V166" s="12"/>
       <c r="W166" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X166" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB166" s="8" t="s">
         <v>30</v>
@@ -10187,28 +10250,28 @@
         <v>31</v>
       </c>
       <c r="M167" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N167" s="15" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="O167" s="15" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="V167" t="s">
         <v>174</v>
       </c>
       <c r="W167" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X167" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB167" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC167" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="168" spans="2:29" x14ac:dyDescent="0.25">
@@ -10234,22 +10297,22 @@
         <v>31</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N168" s="15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="O168" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="V168" t="s">
         <v>175</v>
       </c>
       <c r="W168" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X168" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB168" s="8" t="s">
         <v>30</v>
@@ -10278,28 +10341,28 @@
         <v>31</v>
       </c>
       <c r="M169" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N169" s="15" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O169" s="15" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="V169" t="s">
         <v>177</v>
       </c>
       <c r="W169" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X169" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB169" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC169" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="170" spans="2:29" x14ac:dyDescent="0.25">
@@ -10325,22 +10388,22 @@
         <v>31</v>
       </c>
       <c r="M170" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N170" s="15" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="O170" s="15" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="V170" t="s">
         <v>178</v>
       </c>
       <c r="W170" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X170" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB170" s="8" t="s">
         <v>30</v>
@@ -10381,10 +10444,10 @@
       <c r="U171" s="12"/>
       <c r="V171" s="12"/>
       <c r="W171" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X171" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB171" s="8" t="s">
         <v>30</v>
@@ -10413,22 +10476,22 @@
         <v>31</v>
       </c>
       <c r="M172" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N172" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O172" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="V172" t="s">
         <v>180</v>
       </c>
       <c r="W172" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X172" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB172" s="8" t="s">
         <v>30</v>
@@ -10457,22 +10520,22 @@
         <v>31</v>
       </c>
       <c r="M173" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N173" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O173" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="V173" t="s">
         <v>181</v>
       </c>
       <c r="W173" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X173" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB173" s="8" t="s">
         <v>30</v>
@@ -10513,10 +10576,10 @@
       <c r="U174" s="12"/>
       <c r="V174" s="12"/>
       <c r="W174" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X174" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB174" s="8" t="s">
         <v>30</v>
@@ -10545,22 +10608,22 @@
         <v>31</v>
       </c>
       <c r="M175" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N175" s="15" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="O175" s="15" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="V175" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="W175" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X175" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB175" s="8" t="s">
         <v>30</v>
@@ -10589,28 +10652,28 @@
         <v>31</v>
       </c>
       <c r="M176" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N176" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O176" s="16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="V176" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="W176" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X176" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB176" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC176" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="2:29" x14ac:dyDescent="0.25">
@@ -10636,22 +10699,22 @@
         <v>31</v>
       </c>
       <c r="M177" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N177" s="15" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="O177" s="15" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="V177" t="s">
         <v>185</v>
       </c>
       <c r="W177" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X177" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB177" s="8" t="s">
         <v>30</v>
@@ -10674,40 +10737,40 @@
         <v>30</v>
       </c>
       <c r="K178" s="21" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="L178" s="21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M178" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N178" s="16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O178" s="16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P178" s="16" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q178" s="16" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="V178" t="s">
         <v>183</v>
       </c>
       <c r="W178" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X178" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB178" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC178" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="179" spans="2:29" x14ac:dyDescent="0.25">
@@ -10745,10 +10808,10 @@
       <c r="U179" s="12"/>
       <c r="V179" s="12"/>
       <c r="W179" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X179" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB179" s="8" t="s">
         <v>30</v>
@@ -10777,28 +10840,28 @@
         <v>31</v>
       </c>
       <c r="M180" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N180" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O180" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="V180" t="s">
         <v>186</v>
       </c>
       <c r="W180" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X180" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB180" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC180" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="2:29" x14ac:dyDescent="0.25">
@@ -10824,22 +10887,22 @@
         <v>31</v>
       </c>
       <c r="M181" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N181" s="15" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O181" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="V181" t="s">
         <v>187</v>
       </c>
       <c r="W181" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X181" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB181" s="8" t="s">
         <v>30</v>
@@ -10880,10 +10943,10 @@
       <c r="U182" s="12"/>
       <c r="V182" s="12"/>
       <c r="W182" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X182" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB182" s="8" t="s">
         <v>30</v>
@@ -10912,22 +10975,22 @@
         <v>31</v>
       </c>
       <c r="M183" s="22" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N183" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O183" s="15" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V183" t="s">
         <v>189</v>
       </c>
       <c r="W183" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X183" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB183" s="8" t="s">
         <v>30</v>
@@ -10950,34 +11013,34 @@
         <v>30</v>
       </c>
       <c r="K184" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L184" t="s">
         <v>31</v>
       </c>
       <c r="M184" s="18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N184" s="15" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="O184" s="15" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="V184" t="s">
         <v>190</v>
       </c>
       <c r="W184" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X184" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB184" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC184" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="185" spans="2:29" x14ac:dyDescent="0.25">
@@ -11003,22 +11066,22 @@
         <v>31</v>
       </c>
       <c r="M185" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N185" s="15" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O185" s="15" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="V185" t="s">
         <v>192</v>
       </c>
       <c r="W185" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X185" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB185" s="8" t="s">
         <v>30</v>
@@ -11059,10 +11122,10 @@
       <c r="U186" s="12"/>
       <c r="V186" s="12"/>
       <c r="W186" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X186" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB186" s="8" t="s">
         <v>30</v>
@@ -11091,22 +11154,22 @@
         <v>31</v>
       </c>
       <c r="M187" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N187" s="23" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O187" s="23" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="V187" t="s">
         <v>194</v>
       </c>
       <c r="W187" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X187" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB187" s="8" t="s">
         <v>30</v>
@@ -11135,22 +11198,22 @@
         <v>31</v>
       </c>
       <c r="M188" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N188" s="16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O188" s="16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="V188" t="s">
         <v>194</v>
       </c>
       <c r="W188" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X188" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB188" s="8" t="s">
         <v>30</v>
@@ -11179,22 +11242,22 @@
         <v>31</v>
       </c>
       <c r="M189" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N189" s="16" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O189" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="V189" t="s">
         <v>194</v>
       </c>
       <c r="W189" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X189" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB189" s="8" t="s">
         <v>30</v>
@@ -11235,10 +11298,10 @@
       <c r="U190" s="12"/>
       <c r="V190" s="12"/>
       <c r="W190" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X190" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB190" s="8" t="s">
         <v>30</v>
@@ -11267,22 +11330,22 @@
         <v>31</v>
       </c>
       <c r="M191" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N191" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O191" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="V191" t="s">
         <v>198</v>
       </c>
       <c r="W191" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X191" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB191" s="8" t="s">
         <v>30</v>
@@ -11305,34 +11368,34 @@
         <v>30</v>
       </c>
       <c r="K192" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L192" t="s">
         <v>31</v>
       </c>
       <c r="M192" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N192" s="16" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="O192" s="16" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="P192" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="Q192" s="16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="V192" t="s">
         <v>198</v>
       </c>
       <c r="W192" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X192" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB192" s="8" t="s">
         <v>30</v>
@@ -11362,31 +11425,31 @@
       </c>
       <c r="M193" s="26"/>
       <c r="N193" s="16" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O193" s="16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P193" s="16" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Q193" s="16" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="V193" t="s">
         <v>200</v>
       </c>
       <c r="W193" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X193" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB193" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC193" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="194" spans="2:29" x14ac:dyDescent="0.25">
@@ -11406,34 +11469,34 @@
         <v>30</v>
       </c>
       <c r="K194" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L194" t="s">
         <v>31</v>
       </c>
       <c r="M194" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N194" s="15" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="O194" s="15" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="V194" t="s">
         <v>201</v>
       </c>
       <c r="W194" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X194" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB194" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC194" s="9" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="195" spans="2:29" x14ac:dyDescent="0.25">
@@ -11453,28 +11516,28 @@
         <v>30</v>
       </c>
       <c r="K195" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L195" t="s">
         <v>31</v>
       </c>
       <c r="M195" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N195" s="16" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O195" s="16" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="V195" t="s">
         <v>202</v>
       </c>
       <c r="W195" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X195" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB195" s="8" t="s">
         <v>30</v>
@@ -11515,10 +11578,10 @@
       <c r="U196" s="12"/>
       <c r="V196" s="12"/>
       <c r="W196" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X196" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB196" s="8" t="s">
         <v>30</v>
@@ -11547,22 +11610,22 @@
         <v>31</v>
       </c>
       <c r="M197" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N197" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O197" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="V197" t="s">
         <v>204</v>
       </c>
       <c r="W197" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X197" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB197" s="8" t="s">
         <v>30</v>
@@ -11591,22 +11654,22 @@
         <v>31</v>
       </c>
       <c r="M198" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N198" s="15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O198" s="15" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="V198" t="s">
         <v>206</v>
       </c>
       <c r="W198" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X198" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB198" s="8" t="s">
         <v>30</v>
@@ -11647,10 +11710,10 @@
       <c r="U199" s="12"/>
       <c r="V199" s="12"/>
       <c r="W199" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X199" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB199" s="8" t="s">
         <v>30</v>
@@ -11673,22 +11736,34 @@
         <v>30</v>
       </c>
       <c r="K200" t="s">
+        <v>672</v>
+      </c>
+      <c r="L200" t="s">
+        <v>31</v>
+      </c>
+      <c r="M200" t="s">
+        <v>312</v>
+      </c>
+      <c r="N200" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="O200" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="V200" t="s">
         <v>207</v>
       </c>
-      <c r="L200" t="s">
-        <v>31</v>
-      </c>
-      <c r="V200" t="s">
-        <v>208</v>
-      </c>
       <c r="W200" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X200" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB200" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="201" spans="2:29" x14ac:dyDescent="0.25">
@@ -11708,28 +11783,28 @@
         <v>30</v>
       </c>
       <c r="K201" t="s">
+        <v>208</v>
+      </c>
+      <c r="L201" t="s">
+        <v>31</v>
+      </c>
+      <c r="M201" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="N201" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="O201" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="V201" t="s">
         <v>209</v>
       </c>
-      <c r="L201" t="s">
-        <v>31</v>
-      </c>
-      <c r="M201" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="N201" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="O201" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="V201" t="s">
-        <v>210</v>
-      </c>
       <c r="W201" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X201" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB201" s="8" t="s">
         <v>30</v>
@@ -11770,10 +11845,10 @@
       <c r="U202" s="12"/>
       <c r="V202" s="12"/>
       <c r="W202" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X202" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB202" s="8" t="s">
         <v>30</v>
@@ -11796,28 +11871,28 @@
         <v>30</v>
       </c>
       <c r="K203" t="s">
+        <v>210</v>
+      </c>
+      <c r="L203" t="s">
+        <v>31</v>
+      </c>
+      <c r="M203" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="N203" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="O203" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="V203" t="s">
         <v>211</v>
       </c>
-      <c r="L203" t="s">
-        <v>31</v>
-      </c>
-      <c r="M203" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="N203" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="O203" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="V203" t="s">
-        <v>212</v>
-      </c>
       <c r="W203" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X203" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB203" s="8" t="s">
         <v>30</v>
@@ -11846,22 +11921,22 @@
         <v>31</v>
       </c>
       <c r="M204" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N204" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O204" s="15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="V204" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W204" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X204" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB204" s="8" t="s">
         <v>30</v>
@@ -11902,10 +11977,10 @@
       <c r="U205" s="12"/>
       <c r="V205" s="12"/>
       <c r="W205" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X205" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB205" s="8" t="s">
         <v>30</v>
@@ -11934,22 +12009,22 @@
         <v>31</v>
       </c>
       <c r="M206" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N206" s="15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O206" s="15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="V206" t="s">
         <v>122</v>
       </c>
       <c r="W206" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X206" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB206" s="8" t="s">
         <v>30</v>
@@ -11972,28 +12047,28 @@
         <v>30</v>
       </c>
       <c r="K207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L207" t="s">
         <v>31</v>
       </c>
       <c r="M207" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N207" s="15" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O207" s="15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="V207" t="s">
         <v>122</v>
       </c>
       <c r="W207" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X207" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB207" s="8" t="s">
         <v>30</v>
@@ -12034,10 +12109,10 @@
       <c r="U208" s="12"/>
       <c r="V208" s="12"/>
       <c r="W208" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X208" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB208" s="8" t="s">
         <v>30</v>
@@ -12066,28 +12141,28 @@
         <v>31</v>
       </c>
       <c r="M209" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N209" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O209" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="V209" t="s">
         <v>122</v>
       </c>
       <c r="W209" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X209" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB209" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC209" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="2:29" x14ac:dyDescent="0.25">
@@ -12107,22 +12182,34 @@
         <v>30</v>
       </c>
       <c r="K210" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L210" t="s">
         <v>31</v>
+      </c>
+      <c r="M210" t="s">
+        <v>315</v>
+      </c>
+      <c r="N210" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="O210" s="15" t="s">
+        <v>675</v>
       </c>
       <c r="V210" t="s">
         <v>122</v>
       </c>
       <c r="W210" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X210" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB210" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="211" spans="2:29" x14ac:dyDescent="0.25">
@@ -12160,10 +12247,10 @@
       <c r="U211" s="12"/>
       <c r="V211" s="12"/>
       <c r="W211" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X211" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB211" s="8" t="s">
         <v>30</v>
@@ -12186,28 +12273,28 @@
         <v>30</v>
       </c>
       <c r="K212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L212" t="s">
         <v>31</v>
       </c>
       <c r="M212" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N212" s="16" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O212" s="16" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="V212" t="s">
         <v>122</v>
       </c>
       <c r="W212" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X212" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB212" s="8" t="s">
         <v>30</v>
@@ -12236,22 +12323,22 @@
         <v>31</v>
       </c>
       <c r="M213" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N213" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O213" s="15" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="V213" t="s">
         <v>122</v>
       </c>
       <c r="W213" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X213" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB213" s="8" t="s">
         <v>30</v>
@@ -12280,22 +12367,22 @@
         <v>31</v>
       </c>
       <c r="M214" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N214" s="15" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O214" s="15" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="V214" t="s">
         <v>122</v>
       </c>
       <c r="W214" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X214" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB214" s="8" t="s">
         <v>30</v>
@@ -12336,10 +12423,10 @@
       <c r="U215" s="12"/>
       <c r="V215" s="12"/>
       <c r="W215" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X215" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB215" s="8" t="s">
         <v>30</v>
@@ -12362,28 +12449,28 @@
         <v>30</v>
       </c>
       <c r="K216" t="s">
+        <v>215</v>
+      </c>
+      <c r="L216" t="s">
+        <v>31</v>
+      </c>
+      <c r="M216" t="s">
+        <v>309</v>
+      </c>
+      <c r="N216" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="O216" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="V216" t="s">
         <v>216</v>
       </c>
-      <c r="L216" t="s">
-        <v>31</v>
-      </c>
-      <c r="M216" t="s">
-        <v>314</v>
-      </c>
-      <c r="N216" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="O216" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="V216" t="s">
-        <v>217</v>
-      </c>
       <c r="W216" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X216" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB216" s="8" t="s">
         <v>30</v>
@@ -12412,22 +12499,22 @@
         <v>31</v>
       </c>
       <c r="M217" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N217" s="15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O217" s="15" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="V217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W217" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X217" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB217" s="8" t="s">
         <v>30</v>
@@ -12450,16 +12537,25 @@
         <v>30</v>
       </c>
       <c r="K218" t="s">
+        <v>677</v>
+      </c>
+      <c r="L218" t="s">
+        <v>31</v>
+      </c>
+      <c r="M218" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N218" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="O218" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="V218" t="s">
         <v>219</v>
       </c>
-      <c r="L218" t="s">
-        <v>31</v>
-      </c>
-      <c r="V218" t="s">
-        <v>221</v>
-      </c>
       <c r="W218" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X218" t="s">
         <v>31</v>
@@ -12485,25 +12581,25 @@
         <v>30</v>
       </c>
       <c r="K219" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L219" t="s">
         <v>31</v>
       </c>
       <c r="M219" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N219" s="15" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O219" s="15" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="V219" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W219" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X219" t="s">
         <v>31</v>
@@ -12529,25 +12625,25 @@
         <v>30</v>
       </c>
       <c r="K220" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L220" t="s">
         <v>31</v>
       </c>
       <c r="M220" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N220" s="15" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="O220" s="15" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="V220" t="s">
         <v>122</v>
       </c>
       <c r="W220" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X220" t="s">
         <v>31</v>
@@ -12573,25 +12669,25 @@
         <v>30</v>
       </c>
       <c r="K221" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L221" t="s">
         <v>31</v>
       </c>
       <c r="M221" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N221" s="15" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O221" s="15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="V221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W221" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X221" t="s">
         <v>31</v>
@@ -12616,26 +12712,32 @@
       <c r="J222" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K222" s="11" t="s">
-        <v>225</v>
+      <c r="K222" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="L222" t="s">
         <v>31</v>
       </c>
       <c r="M222" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N222" s="16" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O222" s="16" t="s">
-        <v>463</v>
+        <v>458</v>
+      </c>
+      <c r="P222" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q222" s="15" t="s">
+        <v>681</v>
       </c>
       <c r="V222" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W222" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X222" t="s">
         <v>31</v>
@@ -12661,25 +12763,25 @@
         <v>30</v>
       </c>
       <c r="K223" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L223" t="s">
         <v>31</v>
       </c>
       <c r="M223" s="15" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N223" s="15" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O223" s="15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="V223" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W223" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X223" t="s">
         <v>31</v>
@@ -12723,10 +12825,10 @@
       <c r="U224" s="12"/>
       <c r="V224" s="12"/>
       <c r="W224" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X224" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB224" s="8" t="s">
         <v>30</v>
@@ -12749,28 +12851,28 @@
         <v>30</v>
       </c>
       <c r="K225" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L225" t="s">
         <v>31</v>
       </c>
       <c r="M225" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N225" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="O225" s="15" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="V225" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="W225" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X225" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB225" s="8" t="s">
         <v>30</v>
@@ -12793,40 +12895,40 @@
         <v>30</v>
       </c>
       <c r="K226" t="s">
+        <v>227</v>
+      </c>
+      <c r="L226" t="s">
+        <v>31</v>
+      </c>
+      <c r="M226" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N226" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="O226" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="P226" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q226" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="V226" t="s">
         <v>229</v>
       </c>
-      <c r="L226" t="s">
-        <v>31</v>
-      </c>
-      <c r="M226" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="N226" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="O226" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="P226" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q226" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="V226" t="s">
-        <v>231</v>
-      </c>
       <c r="W226" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X226" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB226" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC226" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="227" spans="2:29" x14ac:dyDescent="0.25">
@@ -12846,25 +12948,25 @@
         <v>30</v>
       </c>
       <c r="K227" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L227" t="s">
         <v>31</v>
       </c>
       <c r="M227" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N227" s="15" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O227" s="15" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="V227" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="W227" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X227" t="s">
         <v>31</v>
@@ -12896,19 +12998,19 @@
         <v>31</v>
       </c>
       <c r="M228" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N228" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O228" s="15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="V228" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="W228" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X228" t="s">
         <v>31</v>
@@ -12952,10 +13054,10 @@
       <c r="U229" s="12"/>
       <c r="V229" s="12"/>
       <c r="W229" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X229" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB229" s="8" t="s">
         <v>30</v>
@@ -12984,22 +13086,22 @@
         <v>31</v>
       </c>
       <c r="M230" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N230" s="15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="O230" s="15" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="V230" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W230" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X230" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB230" s="8" t="s">
         <v>30</v>
@@ -13022,28 +13124,28 @@
         <v>30</v>
       </c>
       <c r="K231" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L231" t="s">
         <v>31</v>
       </c>
       <c r="M231" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N231" s="15" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="O231" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="V231" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W231" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X231" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB231" s="8" t="s">
         <v>30</v>
@@ -13066,25 +13168,25 @@
         <v>30</v>
       </c>
       <c r="K232" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L232" t="s">
         <v>31</v>
       </c>
       <c r="M232" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N232" s="15" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O232" s="15" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="V232" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W232" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X232" t="s">
         <v>31</v>
@@ -13110,25 +13212,25 @@
         <v>30</v>
       </c>
       <c r="K233" t="s">
+        <v>237</v>
+      </c>
+      <c r="L233" t="s">
+        <v>31</v>
+      </c>
+      <c r="M233" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="N233" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="O233" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="V233" t="s">
         <v>239</v>
       </c>
-      <c r="L233" t="s">
-        <v>31</v>
-      </c>
-      <c r="M233" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="N233" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="O233" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="V233" t="s">
-        <v>241</v>
-      </c>
       <c r="W233" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X233" t="s">
         <v>31</v>
@@ -13154,22 +13256,34 @@
         <v>30</v>
       </c>
       <c r="K234" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L234" t="s">
         <v>31</v>
       </c>
+      <c r="M234" t="s">
+        <v>318</v>
+      </c>
+      <c r="N234" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="O234" s="16" t="s">
+        <v>684</v>
+      </c>
       <c r="V234" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="W234" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X234" t="s">
         <v>31</v>
       </c>
       <c r="AB234" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="235" spans="2:29" x14ac:dyDescent="0.25">
@@ -13189,25 +13303,25 @@
         <v>30</v>
       </c>
       <c r="K235" t="s">
+        <v>241</v>
+      </c>
+      <c r="L235" t="s">
+        <v>31</v>
+      </c>
+      <c r="M235" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="N235" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="O235" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="V235" t="s">
         <v>243</v>
       </c>
-      <c r="L235" t="s">
-        <v>31</v>
-      </c>
-      <c r="M235" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="N235" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="O235" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="V235" t="s">
-        <v>246</v>
-      </c>
       <c r="W235" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X235" t="s">
         <v>31</v>
@@ -13233,22 +13347,34 @@
         <v>30</v>
       </c>
       <c r="K236" t="s">
-        <v>244</v>
+        <v>687</v>
       </c>
       <c r="L236" t="s">
         <v>31</v>
       </c>
+      <c r="M236" t="s">
+        <v>309</v>
+      </c>
+      <c r="N236" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="O236" s="15" t="s">
+        <v>686</v>
+      </c>
       <c r="V236" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W236" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X236" t="s">
         <v>31</v>
       </c>
       <c r="AB236" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="237" spans="2:29" x14ac:dyDescent="0.25">
@@ -13268,22 +13394,40 @@
         <v>30</v>
       </c>
       <c r="K237" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L237" t="s">
         <v>31</v>
       </c>
+      <c r="M237" t="s">
+        <v>309</v>
+      </c>
+      <c r="N237" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="O237" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="P237" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q237" s="15" t="s">
+        <v>692</v>
+      </c>
       <c r="V237" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="W237" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X237" t="s">
         <v>31</v>
       </c>
       <c r="AB237" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="238" spans="2:29" x14ac:dyDescent="0.25">
@@ -13303,25 +13447,25 @@
         <v>30</v>
       </c>
       <c r="K238" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L238" t="s">
         <v>31</v>
       </c>
       <c r="M238" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N238" s="16" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O238" s="16" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="V238" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W238" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X238" t="s">
         <v>31</v>
@@ -13347,25 +13491,25 @@
         <v>30</v>
       </c>
       <c r="K239" t="s">
+        <v>249</v>
+      </c>
+      <c r="L239" t="s">
+        <v>31</v>
+      </c>
+      <c r="M239" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="N239" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="O239" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="V239" t="s">
         <v>252</v>
       </c>
-      <c r="L239" t="s">
-        <v>31</v>
-      </c>
-      <c r="M239" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="N239" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="O239" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="V239" t="s">
-        <v>255</v>
-      </c>
       <c r="W239" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X239" t="s">
         <v>31</v>
@@ -13391,25 +13535,25 @@
         <v>30</v>
       </c>
       <c r="K240" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L240" t="s">
         <v>31</v>
       </c>
       <c r="M240" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N240" s="16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="O240" s="16" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="V240" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W240" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X240" t="s">
         <v>31</v>
@@ -13435,22 +13579,34 @@
         <v>30</v>
       </c>
       <c r="K241" t="s">
-        <v>256</v>
+        <v>694</v>
       </c>
       <c r="L241" t="s">
         <v>31</v>
       </c>
+      <c r="M241" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="N241" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="O241" s="15" t="s">
+        <v>696</v>
+      </c>
       <c r="V241" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="W241" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X241" t="s">
         <v>31</v>
       </c>
       <c r="AB241" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="242" spans="2:29" x14ac:dyDescent="0.25">
@@ -13470,25 +13626,25 @@
         <v>30</v>
       </c>
       <c r="K242" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L242" t="s">
         <v>31</v>
       </c>
       <c r="M242" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N242" s="25" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="O242" s="25" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="V242" t="s">
+        <v>254</v>
+      </c>
+      <c r="W242" t="s">
         <v>259</v>
-      </c>
-      <c r="W242" t="s">
-        <v>264</v>
       </c>
       <c r="X242" t="s">
         <v>31</v>
@@ -13532,10 +13688,10 @@
       <c r="U243" s="12"/>
       <c r="V243" s="12"/>
       <c r="W243" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="X243" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB243" s="8" t="s">
         <v>30</v>
@@ -13558,34 +13714,34 @@
         <v>30</v>
       </c>
       <c r="K244" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L244" t="s">
         <v>31</v>
       </c>
       <c r="M244" s="24" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N244" s="25" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="O244" s="25" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="V244" t="s">
+        <v>255</v>
+      </c>
+      <c r="W244" t="s">
         <v>260</v>
       </c>
-      <c r="W244" t="s">
-        <v>265</v>
-      </c>
       <c r="X244" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB244" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC244" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="2:29" x14ac:dyDescent="0.25">
@@ -13605,12 +13761,14 @@
         <v>30</v>
       </c>
       <c r="K245" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L245" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M245" s="13"/>
+      <c r="M245" s="13" t="s">
+        <v>309</v>
+      </c>
       <c r="N245" s="20">
         <v>-1</v>
       </c>
@@ -13624,19 +13782,19 @@
       <c r="T245" s="13"/>
       <c r="U245" s="13"/>
       <c r="V245" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="W245" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="X245" s="13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB245" s="8" t="s">
         <v>30</v>
       </c>
       <c r="AC245" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -13658,13 +13816,13 @@
   <sheetData>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
